--- a/List of Table Number_07122024.xlsx
+++ b/List of Table Number_07122024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG1\Documents\GITD Engagement &amp; Dinner 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US\Documents\GitHub\gitddinner2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DC0227-E4FE-48D9-A1B8-C4AB86E185E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF1B44-E9CF-41EC-B802-89597F80645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{39DB9A1F-5381-4974-925D-A22F547FBD30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39DB9A1F-5381-4974-925D-A22F547FBD30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="989">
   <si>
-    <t xml:space="preserve">  DIV</t>
-  </si>
-  <si>
     <t>GITD</t>
   </si>
   <si>
@@ -3002,6 +2999,9 @@
   </si>
   <si>
     <t>20-45</t>
+  </si>
+  <si>
+    <t>DIV</t>
   </si>
 </sst>
 </file>
@@ -3616,7 +3616,7 @@
   <dimension ref="A1:E460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3630,19 +3630,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,16 +3650,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3667,16 +3667,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3684,16 +3684,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3701,16 +3701,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3718,13 +3718,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E6" s="40">
         <v>12</v>
@@ -3735,13 +3735,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E7" s="40">
         <v>5</v>
@@ -3752,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E8" s="40">
         <v>12</v>
@@ -3769,13 +3769,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E9" s="40">
         <v>5</v>
@@ -3786,13 +3786,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E10" s="40">
         <v>13</v>
@@ -3803,13 +3803,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E11" s="40">
         <v>7</v>
@@ -3820,13 +3820,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E12" s="40">
         <v>12</v>
@@ -3837,16 +3837,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3854,13 +3854,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E14" s="40">
         <v>13</v>
@@ -3871,16 +3871,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3888,13 +3888,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E16" s="40">
         <v>5</v>
@@ -3905,13 +3905,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E17" s="40">
         <v>5</v>
@@ -3922,16 +3922,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3939,16 +3939,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3956,16 +3956,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3973,16 +3973,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3990,16 +3990,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4007,13 +4007,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E23" s="40">
         <v>15</v>
@@ -4024,16 +4024,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4041,16 +4041,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4058,13 +4058,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E26" s="40">
         <v>15</v>
@@ -4075,16 +4075,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4092,13 +4092,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E28" s="40">
         <v>15</v>
@@ -4109,16 +4109,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4126,13 +4126,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E30" s="40">
         <v>6</v>
@@ -4143,16 +4143,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4160,13 +4160,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E32" s="40">
         <v>7</v>
@@ -4177,13 +4177,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E33" s="40">
         <v>15</v>
@@ -4194,16 +4194,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4211,13 +4211,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E35" s="40">
         <v>7</v>
@@ -4228,16 +4228,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4245,16 +4245,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4262,13 +4262,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E38" s="40">
         <v>18</v>
@@ -4279,13 +4279,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E39" s="40">
         <v>10</v>
@@ -4296,13 +4296,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E40" s="40">
         <v>18</v>
@@ -4313,13 +4313,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E41" s="40">
         <v>18</v>
@@ -4330,13 +4330,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E42" s="40">
         <v>18</v>
@@ -4347,16 +4347,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4364,13 +4364,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E44" s="40">
         <v>10</v>
@@ -4381,13 +4381,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E45" s="40">
         <v>10</v>
@@ -4398,13 +4398,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E46" s="40">
         <v>10</v>
@@ -4415,16 +4415,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4432,16 +4432,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4449,16 +4449,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4466,16 +4466,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4483,16 +4483,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4500,13 +4500,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E52" s="40">
         <v>19</v>
@@ -4517,16 +4517,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4534,16 +4534,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E55" s="40">
         <v>12</v>
@@ -4568,13 +4568,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E56" s="40">
         <v>13</v>
@@ -4585,13 +4585,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E57" s="40">
         <v>19</v>
@@ -4602,13 +4602,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E58" s="40">
         <v>19</v>
@@ -4619,13 +4619,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E59" s="40">
         <v>19</v>
@@ -4636,16 +4636,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4653,16 +4653,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4670,16 +4670,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4687,13 +4687,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E63" s="40">
         <v>5</v>
@@ -4704,13 +4704,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E64" s="40">
         <v>10</v>
@@ -4721,16 +4721,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4738,13 +4738,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E66" s="40">
         <v>10</v>
@@ -4755,16 +4755,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4772,16 +4772,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4789,13 +4789,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E69" s="40">
         <v>9</v>
@@ -4806,13 +4806,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E70" s="40">
         <v>10</v>
@@ -4823,16 +4823,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4840,16 +4840,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4857,16 +4857,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4874,16 +4874,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4891,13 +4891,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E75" s="40">
         <v>10</v>
@@ -4908,16 +4908,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4925,13 +4925,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E77" s="40">
         <v>17</v>
@@ -4942,13 +4942,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E78" s="40">
         <v>2</v>
@@ -4959,13 +4959,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E79" s="40">
         <v>8</v>
@@ -4976,16 +4976,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4993,16 +4993,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5010,16 +5010,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5027,13 +5027,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E83" s="40">
         <v>2</v>
@@ -5044,16 +5044,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5061,16 +5061,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5078,16 +5078,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5095,13 +5095,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E87" s="40">
         <v>2</v>
@@ -5112,16 +5112,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5129,13 +5129,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E89" s="40">
         <v>5</v>
@@ -5146,16 +5146,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5163,16 +5163,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5180,16 +5180,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E92" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5197,13 +5197,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E93" s="40">
         <v>12</v>
@@ -5214,16 +5214,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5231,16 +5231,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5248,13 +5248,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E96" s="40">
         <v>5</v>
@@ -5265,16 +5265,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5282,16 +5282,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5299,16 +5299,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5316,16 +5316,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5333,16 +5333,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5350,16 +5350,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5367,13 +5367,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E103" s="40">
         <v>8</v>
@@ -5384,13 +5384,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E104" s="40">
         <v>15</v>
@@ -5401,13 +5401,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E105" s="40">
         <v>2</v>
@@ -5418,16 +5418,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5435,13 +5435,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E107" s="40">
         <v>2</v>
@@ -5452,13 +5452,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E108" s="40">
         <v>11</v>
@@ -5469,13 +5469,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E109" s="40">
         <v>2</v>
@@ -5486,13 +5486,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E110" s="40">
         <v>2</v>
@@ -5503,16 +5503,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E111" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5520,16 +5520,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5537,13 +5537,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E113" s="40">
         <v>8</v>
@@ -5554,16 +5554,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5571,16 +5571,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E115" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5588,16 +5588,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E116" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5605,16 +5605,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E117" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5622,16 +5622,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E118" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5639,16 +5639,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E119" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5656,16 +5656,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E120" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5673,16 +5673,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E121" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5690,16 +5690,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5707,16 +5707,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E123" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5724,13 +5724,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E124" s="40">
         <v>8</v>
@@ -5741,16 +5741,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E125" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,16 +5758,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E126" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5775,16 +5775,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E127" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5792,16 +5792,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E128" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5809,13 +5809,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E129" s="40">
         <v>14</v>
@@ -5826,13 +5826,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E130" s="40">
         <v>12</v>
@@ -5843,13 +5843,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E131" s="40">
         <v>14</v>
@@ -5860,13 +5860,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E132" s="40">
         <v>14</v>
@@ -5877,13 +5877,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E133" s="40">
         <v>14</v>
@@ -5894,16 +5894,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E134" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5911,16 +5911,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E135" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5928,13 +5928,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E136" s="40">
         <v>12</v>
@@ -5945,16 +5945,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E137" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5962,13 +5962,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E138" s="40">
         <v>3</v>
@@ -5979,13 +5979,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E139" s="40">
         <v>1</v>
@@ -5996,16 +5996,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E140" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6013,13 +6013,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E141" s="40">
         <v>3</v>
@@ -6030,13 +6030,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E142" s="40">
         <v>3</v>
@@ -6047,16 +6047,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E143" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -6064,13 +6064,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E144" s="40">
         <v>3</v>
@@ -6081,13 +6081,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E145" s="40">
         <v>3</v>
@@ -6098,16 +6098,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E146" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6115,13 +6115,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E147" s="40">
         <v>3</v>
@@ -6132,16 +6132,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E148" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6149,13 +6149,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E149" s="40">
         <v>6</v>
@@ -6166,16 +6166,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E150" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -6183,16 +6183,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E151" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6200,16 +6200,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -6217,16 +6217,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E153" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -6234,16 +6234,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E154" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6251,16 +6251,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E155" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6268,16 +6268,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E156" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6285,16 +6285,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E157" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6302,16 +6302,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E158" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -6319,16 +6319,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E159" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6336,16 +6336,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E160" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6353,16 +6353,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E161" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6370,16 +6370,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E162" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6387,16 +6387,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E163" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6404,16 +6404,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E164" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6421,16 +6421,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E165" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6438,16 +6438,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E166" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6455,16 +6455,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E167" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6472,16 +6472,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E168" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6489,16 +6489,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E169" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -6506,16 +6506,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E170" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -6523,16 +6523,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E171" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -6540,13 +6540,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E172" s="40">
         <v>3</v>
@@ -6557,13 +6557,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E173" s="40">
         <v>3</v>
@@ -6574,13 +6574,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E174" s="40">
         <v>3</v>
@@ -6591,16 +6591,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E175" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -6608,13 +6608,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E176" s="40">
         <v>7</v>
@@ -6625,13 +6625,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E177" s="40">
         <v>6</v>
@@ -6642,16 +6642,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E178" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -6659,16 +6659,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E179" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -6676,16 +6676,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D180" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E180" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -6693,16 +6693,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D181" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E181" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -6710,16 +6710,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D182" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E182" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -6727,16 +6727,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E183" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -6744,16 +6744,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D184" s="31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E184" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -6761,16 +6761,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D185" s="31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E185" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -6778,16 +6778,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D186" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E186" s="41" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -6795,13 +6795,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D187" s="31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E187" s="40">
         <v>6</v>
@@ -6812,16 +6812,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D188" s="31" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E188" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -6829,16 +6829,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D189" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E189" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -6846,16 +6846,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D190" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E190" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -6863,16 +6863,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E191" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -6880,16 +6880,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D192" s="31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -6897,16 +6897,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D193" s="31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E193" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -6914,16 +6914,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D194" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E194" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -6931,13 +6931,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D195" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E195" s="40">
         <v>1</v>
@@ -6948,13 +6948,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D196" s="31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E196" s="40">
         <v>1</v>
@@ -6965,16 +6965,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D197" s="31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E197" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -6982,16 +6982,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D198" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -6999,16 +6999,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D199" s="31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -7016,16 +7016,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D200" s="31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E200" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -7033,16 +7033,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D201" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E201" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -7050,16 +7050,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D202" s="31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E202" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -7067,16 +7067,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D203" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E203" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -7084,16 +7084,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D204" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E204" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -7101,16 +7101,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D205" s="31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E205" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -7118,16 +7118,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D206" s="31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E206" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -7135,16 +7135,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D207" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E207" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -7152,16 +7152,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D208" s="31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E208" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -7169,16 +7169,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D209" s="31" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E209" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -7186,16 +7186,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D210" s="31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E210" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -7203,16 +7203,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D211" s="31" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E211" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -7220,16 +7220,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D212" s="31" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E212" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -7237,16 +7237,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D213" s="31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -7254,16 +7254,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D214" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E214" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -7271,16 +7271,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D215" s="31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E215" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -7288,16 +7288,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D216" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E216" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -7305,13 +7305,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D217" s="31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E217" s="40">
         <v>1</v>
@@ -7322,16 +7322,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D218" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -7339,16 +7339,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D219" s="31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -7356,16 +7356,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D220" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -7373,16 +7373,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D221" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E221" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -7390,16 +7390,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D222" s="31" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E222" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -7407,16 +7407,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D223" s="31" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E223" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -7424,13 +7424,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D224" s="31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E224" s="40">
         <v>4</v>
@@ -7441,13 +7441,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D225" s="31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E225" s="40">
         <v>4</v>
@@ -7458,16 +7458,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D226" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E226" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -7475,16 +7475,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D227" s="31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E227" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -7492,16 +7492,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D228" s="31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -7509,16 +7509,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D229" s="31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -7526,16 +7526,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D230" s="31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E230" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -7543,13 +7543,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D231" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E231" s="40">
         <v>4</v>
@@ -7560,13 +7560,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D232" s="31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E232" s="40">
         <v>4</v>
@@ -7577,16 +7577,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D233" s="31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E233" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -7594,16 +7594,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D234" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E234" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -7611,16 +7611,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D235" s="31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -7628,16 +7628,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D236" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -7645,16 +7645,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D237" s="31" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -7662,13 +7662,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D238" s="31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E238" s="40">
         <v>1</v>
@@ -7679,16 +7679,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D239" s="31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E239" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -7696,16 +7696,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D240" s="31" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E240" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -7713,16 +7713,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D241" s="31" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E241" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -7730,13 +7730,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D242" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E242" s="40">
         <v>18</v>
@@ -7747,13 +7747,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D243" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E243" s="40">
         <v>18</v>
@@ -7764,16 +7764,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D244" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7781,16 +7781,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D245" s="31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E245" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7798,13 +7798,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D246" s="31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E246" s="40">
         <v>18</v>
@@ -7815,13 +7815,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D247" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E247" s="40">
         <v>18</v>
@@ -7832,13 +7832,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D248" s="31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E248" s="40">
         <v>18</v>
@@ -7849,16 +7849,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D249" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -7866,16 +7866,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D250" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -7883,16 +7883,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D251" s="31" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7900,16 +7900,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D252" s="31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -7917,16 +7917,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D253" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -7934,16 +7934,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -7951,16 +7951,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -7968,16 +7968,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -7985,16 +7985,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -8002,16 +8002,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -8019,16 +8019,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -8036,16 +8036,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -8053,16 +8053,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -8070,16 +8070,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C262" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D262" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -8087,16 +8087,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D263" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -8104,16 +8104,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E264" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -8121,16 +8121,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E265" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -8138,16 +8138,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C266" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -8155,13 +8155,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E267" s="40">
         <v>1</v>
@@ -8172,13 +8172,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E268" s="40">
         <v>1</v>
@@ -8189,16 +8189,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -8206,16 +8206,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E270" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -8223,16 +8223,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E271" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -8240,16 +8240,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E272" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -8257,16 +8257,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D273" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E273" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -8274,16 +8274,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D274" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E274" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -8291,16 +8291,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C275" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D275" s="31" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E275" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -8308,13 +8308,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D276" s="31" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E276" s="40">
         <v>15</v>
@@ -8325,13 +8325,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E277" s="40">
         <v>15</v>
@@ -8342,16 +8342,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E278" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -8359,16 +8359,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E279" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -8376,13 +8376,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E280" s="40">
         <v>11</v>
@@ -8393,13 +8393,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E281" s="40">
         <v>11</v>
@@ -8410,13 +8410,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E282" s="40">
         <v>11</v>
@@ -8427,13 +8427,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D283" s="31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E283" s="40">
         <v>11</v>
@@ -8444,13 +8444,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E284" s="40">
         <v>17</v>
@@ -8461,13 +8461,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D285" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E285" s="40">
         <v>17</v>
@@ -8478,13 +8478,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E286" s="40">
         <v>17</v>
@@ -8495,13 +8495,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D287" s="31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E287" s="40">
         <v>17</v>
@@ -8512,13 +8512,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D288" s="31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E288" s="40">
         <v>11</v>
@@ -8529,16 +8529,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D289" s="31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E289" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -8546,13 +8546,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D290" s="31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E290" s="40">
         <v>16</v>
@@ -8563,13 +8563,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D291" s="31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E291" s="40">
         <v>11</v>
@@ -8580,13 +8580,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D292" s="31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E292" s="40">
         <v>11</v>
@@ -8597,13 +8597,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D293" s="31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E293" s="40">
         <v>16</v>
@@ -8614,16 +8614,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D294" s="31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E294" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -8631,16 +8631,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E295" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -8648,16 +8648,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D296" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E296" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -8665,16 +8665,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C297" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D297" s="31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E297" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -8682,16 +8682,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D298" s="31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E298" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -8699,16 +8699,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D299" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E299" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -8716,16 +8716,16 @@
         <v>299</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D300" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E300" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -8733,16 +8733,16 @@
         <v>300</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D301" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E301" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -8750,16 +8750,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D302" s="31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E302" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -8767,16 +8767,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D303" s="31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E303" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -8784,16 +8784,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D304" s="31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E304" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -8801,16 +8801,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D305" s="31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E305" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -8818,16 +8818,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D306" s="31" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E306" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -8835,13 +8835,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C307" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D307" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E307" s="40">
         <v>12</v>
@@ -8852,13 +8852,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D308" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E308" s="40">
         <v>9</v>
@@ -8869,16 +8869,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D309" s="31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E309" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -8886,16 +8886,16 @@
         <v>309</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D310" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E310" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -8903,13 +8903,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D311" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E311" s="40">
         <v>12</v>
@@ -8920,13 +8920,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D312" s="31" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E312" s="40">
         <v>9</v>
@@ -8937,13 +8937,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D313" s="31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E313" s="40">
         <v>9</v>
@@ -8954,16 +8954,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D314" s="31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E314" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -8971,16 +8971,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D315" s="31" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E315" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -8988,13 +8988,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D316" s="31" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E316" s="40">
         <v>8</v>
@@ -9005,13 +9005,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D317" s="31" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E317" s="40">
         <v>8</v>
@@ -9022,16 +9022,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C318" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D318" s="31" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E318" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -9039,16 +9039,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D319" s="31" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E319" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -9056,13 +9056,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D320" s="31" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E320" s="40">
         <v>15</v>
@@ -9073,13 +9073,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D321" s="31" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E321" s="40">
         <v>12</v>
@@ -9090,16 +9090,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D322" s="31" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E322" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -9107,13 +9107,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D323" s="31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E323" s="40">
         <v>15</v>
@@ -9124,13 +9124,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D324" s="31" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E324" s="40">
         <v>15</v>
@@ -9141,16 +9141,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D325" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E325" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -9158,16 +9158,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D326" s="31" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E326" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -9175,13 +9175,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C327" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D327" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E327" s="40">
         <v>10</v>
@@ -9192,16 +9192,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D328" s="31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E328" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -9209,13 +9209,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D329" s="31" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E329" s="40">
         <v>6</v>
@@ -9226,16 +9226,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D330" s="31" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E330" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -9243,13 +9243,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D331" s="31" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E331" s="40">
         <v>13</v>
@@ -9260,13 +9260,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D332" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E332" s="40">
         <v>6</v>
@@ -9277,16 +9277,16 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D333" s="31" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E333" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -9294,13 +9294,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D334" s="31" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E334" s="40">
         <v>13</v>
@@ -9311,16 +9311,16 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D335" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E335" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -9328,13 +9328,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C336" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D336" s="31" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E336" s="40">
         <v>6</v>
@@ -9345,16 +9345,16 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C337" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D337" s="31" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E337" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -9362,13 +9362,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D338" s="31" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E338" s="40">
         <v>7</v>
@@ -9379,16 +9379,16 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D339" s="31" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E339" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -9396,16 +9396,16 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D340" s="31" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E340" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -9413,16 +9413,16 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D341" s="31" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E341" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -9430,13 +9430,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D342" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E342" s="40">
         <v>6</v>
@@ -9447,16 +9447,16 @@
         <v>342</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D343" s="31" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E343" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -9464,16 +9464,16 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D344" s="31" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E344" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -9481,13 +9481,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D345" s="31" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E345" s="40">
         <v>7</v>
@@ -9498,16 +9498,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D346" s="31" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E346" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -9515,16 +9515,16 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D347" s="31" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E347" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -9532,13 +9532,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D348" s="31" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E348" s="40">
         <v>1</v>
@@ -9549,16 +9549,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D349" s="31" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E349" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -9566,13 +9566,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D350" s="31" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E350" s="40">
         <v>1</v>
@@ -9583,16 +9583,16 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D351" s="31" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E351" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -9600,13 +9600,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C352" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D352" s="31" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E352" s="40">
         <v>6</v>
@@ -9617,13 +9617,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D353" s="31" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E353" s="40">
         <v>6</v>
@@ -9634,13 +9634,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D354" s="31" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E354" s="40">
         <v>13</v>
@@ -9651,13 +9651,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D355" s="31" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E355" s="40">
         <v>13</v>
@@ -9668,16 +9668,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D356" s="31" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E356" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -9685,13 +9685,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C357" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D357" s="31" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E357" s="40">
         <v>13</v>
@@ -9702,13 +9702,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C358" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D358" s="31" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E358" s="40">
         <v>13</v>
@@ -9719,16 +9719,16 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D359" s="31" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E359" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -9736,16 +9736,16 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E360" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -9753,13 +9753,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D361" s="31" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E361" s="40">
         <v>10</v>
@@ -9770,13 +9770,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D362" s="31" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E362" s="40">
         <v>7</v>
@@ -9787,13 +9787,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C363" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D363" s="31" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E363" s="40">
         <v>11</v>
@@ -9804,13 +9804,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D364" s="31" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E364" s="40">
         <v>13</v>
@@ -9821,13 +9821,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D365" s="31" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E365" s="40">
         <v>11</v>
@@ -9838,16 +9838,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D366" s="31" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E366" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -9855,13 +9855,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D367" s="31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E367" s="40">
         <v>14</v>
@@ -9872,16 +9872,16 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D368" s="31" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -9889,16 +9889,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D369" s="31" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -9906,16 +9906,16 @@
         <v>369</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D370" s="31" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E370" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -9923,16 +9923,16 @@
         <v>370</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D371" s="31" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E371" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -9940,16 +9940,16 @@
         <v>371</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D372" s="31" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E372" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -9957,13 +9957,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C373" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D373" s="31" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E373" s="40">
         <v>17</v>
@@ -9974,13 +9974,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D374" s="31" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E374" s="40">
         <v>16</v>
@@ -9991,13 +9991,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D375" s="31" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E375" s="40">
         <v>17</v>
@@ -10008,13 +10008,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D376" s="31" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E376" s="40">
         <v>17</v>
@@ -10025,13 +10025,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D377" s="31" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E377" s="40">
         <v>16</v>
@@ -10042,10 +10042,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C378" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D378" s="31">
         <v>263</v>
@@ -10059,13 +10059,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D379" s="31" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E379" s="40">
         <v>9</v>
@@ -10076,13 +10076,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D380" s="31" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E380" s="40">
         <v>9</v>
@@ -10093,13 +10093,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D381" s="31" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E381" s="40">
         <v>9</v>
@@ -10110,13 +10110,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D382" s="31" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E382" s="40">
         <v>9</v>
@@ -10127,13 +10127,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C383" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D383" s="31" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E383" s="40">
         <v>17</v>
@@ -10144,13 +10144,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D384" s="31" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E384" s="40">
         <v>18</v>
@@ -10161,13 +10161,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C385" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D385" s="31" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E385" s="40">
         <v>5</v>
@@ -10178,13 +10178,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D386" s="31" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E386" s="40">
         <v>1</v>
@@ -10195,16 +10195,16 @@
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D387" s="31" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E387" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -10212,16 +10212,16 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D388" s="31" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E388" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -10229,16 +10229,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C389" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D389" s="31" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E389" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -10246,13 +10246,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D390" s="31" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E390" s="40">
         <v>9</v>
@@ -10263,16 +10263,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C391" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D391" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -10280,13 +10280,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C392" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D392" s="31" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E392" s="40">
         <v>5</v>
@@ -10297,13 +10297,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C393" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D393" s="31" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E393" s="40">
         <v>14</v>
@@ -10314,13 +10314,13 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D394" s="31" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E394" s="40">
         <v>14</v>
@@ -10331,13 +10331,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C395" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D395" s="31" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E395" s="40">
         <v>5</v>
@@ -10348,13 +10348,13 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D396" s="31" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E396" s="40">
         <v>14</v>
@@ -10365,13 +10365,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C397" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D397" s="31" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E397" s="40">
         <v>14</v>
@@ -10382,16 +10382,16 @@
         <v>397</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D398" s="31" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E398" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -10399,16 +10399,16 @@
         <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C399" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D399" s="31" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E399" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -10416,13 +10416,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C400" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D400" s="31" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E400" s="40">
         <v>4</v>
@@ -10433,13 +10433,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C401" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D401" s="31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E401" s="40">
         <v>4</v>
@@ -10450,13 +10450,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D402" s="31" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E402" s="40">
         <v>4</v>
@@ -10467,13 +10467,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D403" s="31" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E403" s="40">
         <v>4</v>
@@ -10484,13 +10484,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D404" s="31" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E404" s="40">
         <v>4</v>
@@ -10501,13 +10501,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C405" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D405" s="31" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E405" s="40">
         <v>16</v>
@@ -10518,13 +10518,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D406" s="31" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E406" s="40">
         <v>16</v>
@@ -10535,13 +10535,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C407" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D407" s="31" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E407" s="40">
         <v>16</v>
@@ -10552,13 +10552,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C408" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D408" s="31" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E408" s="40">
         <v>16</v>
@@ -10569,13 +10569,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C409" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D409" s="31" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E409" s="40">
         <v>16</v>
@@ -10586,13 +10586,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D410" s="31" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E410" s="40">
         <v>16</v>
@@ -10603,16 +10603,16 @@
         <v>410</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C411" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D411" s="31" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E411" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -10620,16 +10620,16 @@
         <v>411</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D412" s="31" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E412" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -10637,16 +10637,16 @@
         <v>412</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D413" s="31" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E413" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -10654,16 +10654,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D414" s="31" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E414" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -10671,16 +10671,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D415" s="31" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E415" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -10688,16 +10688,16 @@
         <v>415</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D416" s="31" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E416" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -10705,13 +10705,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D417" s="31" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E417" s="40">
         <v>2</v>
@@ -10722,13 +10722,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D418" s="31" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E418" s="40">
         <v>2</v>
@@ -10739,13 +10739,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D419" s="31" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E419" s="40">
         <v>2</v>
@@ -10756,16 +10756,16 @@
         <v>419</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D420" s="31" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E420" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -10773,16 +10773,16 @@
         <v>420</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D421" s="31" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E421" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -10790,16 +10790,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D422" s="31" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E422" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -10807,13 +10807,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D423" s="31" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E423" s="40">
         <v>8</v>
@@ -10824,16 +10824,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D424" s="31" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E424" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -10841,16 +10841,16 @@
         <v>424</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D425" s="31" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E425" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -10858,16 +10858,16 @@
         <v>425</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D426" s="31" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E426" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -10875,16 +10875,16 @@
         <v>426</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D427" s="31" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E427" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -10892,16 +10892,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D428" s="31" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E428" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -10909,16 +10909,16 @@
         <v>428</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D429" s="31" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E429" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -10926,13 +10926,13 @@
         <v>429</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D430" s="31" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E430" s="40">
         <v>8</v>
@@ -10943,16 +10943,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D431" s="31" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E431" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -10960,13 +10960,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D432" s="31" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E432" s="40">
         <v>8</v>
@@ -10977,13 +10977,13 @@
         <v>432</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D433" s="31" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E433" s="40">
         <v>7</v>
@@ -10994,13 +10994,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D434" s="31" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E434" s="40">
         <v>7</v>
@@ -11011,13 +11011,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D435" s="31" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E435" s="40">
         <v>7</v>
@@ -11028,16 +11028,16 @@
         <v>435</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D436" s="31" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E436" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -11045,16 +11045,16 @@
         <v>436</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D437" s="31" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E437" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -11062,16 +11062,16 @@
         <v>437</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D438" s="31" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E438" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -11079,13 +11079,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D439" s="31" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E439" s="40">
         <v>14</v>
@@ -11096,16 +11096,16 @@
         <v>439</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D440" s="31" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E440" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -11113,16 +11113,16 @@
         <v>440</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D441" s="31" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E441" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -11130,16 +11130,16 @@
         <v>441</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D442" s="31" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E442" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -11147,17 +11147,17 @@
         <v>442</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C443" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D443" s="25" t="str">
         <f>VLOOKUP(C443,Sheet2!A:B,2,0)</f>
         <v>XL230040</v>
       </c>
       <c r="E443" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -11165,17 +11165,17 @@
         <v>443</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C444" s="38" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D444" s="25" t="str">
         <f>VLOOKUP(C444,Sheet2!A:B,2,0)</f>
         <v>XL230041</v>
       </c>
       <c r="E444" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -11183,17 +11183,17 @@
         <v>444</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C445" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D445" s="25" t="str">
         <f>VLOOKUP(C445,Sheet2!A:B,2,0)</f>
         <v>XL230043</v>
       </c>
       <c r="E445" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -11201,17 +11201,17 @@
         <v>445</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C446" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D446" s="25" t="str">
         <f>VLOOKUP(C446,Sheet2!A:B,2,0)</f>
         <v>XL230044</v>
       </c>
       <c r="E446" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -11219,17 +11219,17 @@
         <v>446</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C447" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D447" s="25" t="str">
         <f>VLOOKUP(C447,Sheet2!A:B,2,0)</f>
         <v>XL231122</v>
       </c>
       <c r="E447" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -11237,17 +11237,17 @@
         <v>447</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C448" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D448" s="25" t="str">
         <f>VLOOKUP(C448,Sheet2!A:B,2,0)</f>
         <v>XL234200</v>
       </c>
       <c r="E448" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -11255,17 +11255,17 @@
         <v>448</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C449" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D449" s="25" t="str">
         <f>VLOOKUP(C449,Sheet2!A:B,2,0)</f>
         <v>XL234430</v>
       </c>
       <c r="E449" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -11273,17 +11273,17 @@
         <v>449</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C450" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D450" s="25" t="str">
         <f>VLOOKUP(C450,Sheet2!A:B,2,0)</f>
         <v>XL235180</v>
       </c>
       <c r="E450" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -11291,10 +11291,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C451" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D451" s="25" t="str">
         <f>VLOOKUP(C451,Sheet2!A:B,2,0)</f>
@@ -11309,17 +11309,17 @@
         <v>451</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C452" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D452" s="25" t="str">
         <f>VLOOKUP(C452,Sheet2!A:B,2,0)</f>
         <v>XL235433</v>
       </c>
       <c r="E452" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -11327,10 +11327,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C453" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D453" s="25" t="str">
         <f>VLOOKUP(C453,Sheet2!A:B,2,0)</f>
@@ -11345,17 +11345,17 @@
         <v>453</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C454" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D454" s="25" t="str">
         <f>VLOOKUP(C454,Sheet2!A:B,2,0)</f>
         <v>XL243045</v>
       </c>
       <c r="E454" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -11363,13 +11363,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D455" s="33" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E455" s="40">
         <v>19</v>
@@ -11380,13 +11380,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D456" s="33" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E456" s="40">
         <v>19</v>
@@ -11397,13 +11397,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D457" s="33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E457" s="40">
         <v>19</v>
@@ -11414,16 +11414,16 @@
         <v>457</v>
       </c>
       <c r="B458" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D458" s="33" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E458" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -11431,16 +11431,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C459" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D459" s="33" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E459" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -11448,13 +11448,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D460" s="33" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E460" s="40">
         <v>19</v>
@@ -11480,261 +11480,261 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>490</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>492</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>494</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>496</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>501</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>503</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>505</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>508</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>511</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>513</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>517</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>520</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>522</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>524</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>527</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>531</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>534</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B32" s="26"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B33" s="29"/>
     </row>

--- a/List of Table Number_07122024.xlsx
+++ b/List of Table Number_07122024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US\Documents\GitHub\gitddinner2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF1B44-E9CF-41EC-B802-89597F80645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E96A167-D49C-4C4C-BC27-0BFDE05D7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39DB9A1F-5381-4974-925D-A22F547FBD30}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{39DB9A1F-5381-4974-925D-A22F547FBD30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="990">
   <si>
     <t>GITD</t>
   </si>
@@ -1999,9 +1999,6 @@
     <t>S53714</t>
   </si>
   <si>
-    <t>M11692</t>
-  </si>
-  <si>
     <t>TM39867</t>
   </si>
   <si>
@@ -2653,9 +2650,6 @@
     <t>TM30136</t>
   </si>
   <si>
-    <t>C0680</t>
-  </si>
-  <si>
     <t>S53151</t>
   </si>
   <si>
@@ -3002,13 +2996,22 @@
   </si>
   <si>
     <t>DIV</t>
+  </si>
+  <si>
+    <t>GN0263</t>
+  </si>
+  <si>
+    <t>TM40345</t>
+  </si>
+  <si>
+    <t>VC0680</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3100,6 +3103,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3183,7 +3194,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3293,6 +3304,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3615,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F279ECC-7305-4F31-A260-4783CCF1EFAD}">
   <dimension ref="A1:E460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C411" sqref="C411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,7 +3647,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>15</v>
@@ -3659,7 +3673,7 @@
         <v>538</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,10 +3687,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3693,7 +3707,7 @@
         <v>539</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,7 +3724,7 @@
         <v>540</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3846,7 +3860,7 @@
         <v>548</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3880,7 +3894,7 @@
         <v>550</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3931,7 +3945,7 @@
         <v>553</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3948,7 +3962,7 @@
         <v>554</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3965,7 +3979,7 @@
         <v>555</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3982,7 +3996,7 @@
         <v>556</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3999,7 +4013,7 @@
         <v>557</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4033,7 +4047,7 @@
         <v>559</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4050,7 +4064,7 @@
         <v>560</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4084,7 +4098,7 @@
         <v>562</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4118,7 +4132,7 @@
         <v>564</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4152,7 +4166,7 @@
         <v>566</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4203,7 +4217,7 @@
         <v>569</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,7 +4251,7 @@
         <v>571</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,7 +4268,7 @@
         <v>572</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4356,7 +4370,7 @@
         <v>578</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4424,7 +4438,7 @@
         <v>582</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4441,7 +4455,7 @@
         <v>583</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4458,7 +4472,7 @@
         <v>584</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4475,7 +4489,7 @@
         <v>585</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4492,7 +4506,7 @@
         <v>586</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4526,7 +4540,7 @@
         <v>588</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4543,7 +4557,7 @@
         <v>589</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,7 +4659,7 @@
         <v>595</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4662,7 +4676,7 @@
         <v>596</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4679,7 +4693,7 @@
         <v>597</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4730,7 +4744,7 @@
         <v>600</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4764,7 +4778,7 @@
         <v>602</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4781,7 +4795,7 @@
         <v>603</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4832,7 +4846,7 @@
         <v>606</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4849,7 +4863,7 @@
         <v>607</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,7 +4880,7 @@
         <v>608</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,7 +4897,7 @@
         <v>609</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4917,7 +4931,7 @@
         <v>611</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4985,7 +4999,7 @@
         <v>615</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -5002,7 +5016,7 @@
         <v>616</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5019,7 +5033,7 @@
         <v>617</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5053,7 +5067,7 @@
         <v>619</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5070,7 +5084,7 @@
         <v>620</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5087,7 +5101,7 @@
         <v>621</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5121,7 +5135,7 @@
         <v>623</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5155,7 +5169,7 @@
         <v>625</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5172,7 +5186,7 @@
         <v>626</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5189,7 +5203,7 @@
         <v>627</v>
       </c>
       <c r="E92" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5223,7 +5237,7 @@
         <v>629</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5240,7 +5254,7 @@
         <v>630</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5274,7 +5288,7 @@
         <v>632</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5291,7 +5305,7 @@
         <v>633</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5308,7 +5322,7 @@
         <v>634</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5325,7 +5339,7 @@
         <v>635</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5342,7 +5356,7 @@
         <v>636</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5359,7 +5373,7 @@
         <v>637</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5427,7 +5441,7 @@
         <v>641</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5512,7 +5526,7 @@
         <v>646</v>
       </c>
       <c r="E111" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5529,7 +5543,7 @@
         <v>647</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5563,7 +5577,7 @@
         <v>649</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5580,7 +5594,7 @@
         <v>650</v>
       </c>
       <c r="E115" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,7 +5611,7 @@
         <v>651</v>
       </c>
       <c r="E116" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5614,7 +5628,7 @@
         <v>652</v>
       </c>
       <c r="E117" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5631,7 +5645,7 @@
         <v>653</v>
       </c>
       <c r="E118" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5644,11 +5658,11 @@
       <c r="C119" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D119" s="31" t="s">
-        <v>654</v>
+      <c r="D119" s="42" t="s">
+        <v>988</v>
       </c>
       <c r="E119" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5662,10 +5676,10 @@
         <v>134</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E120" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5679,10 +5693,10 @@
         <v>135</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E121" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5696,10 +5710,10 @@
         <v>136</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5713,10 +5727,10 @@
         <v>137</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E123" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5730,7 +5744,7 @@
         <v>138</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E124" s="40">
         <v>8</v>
@@ -5747,10 +5761,10 @@
         <v>139</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E125" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5764,10 +5778,10 @@
         <v>140</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E126" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5781,10 +5795,10 @@
         <v>141</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E127" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5798,10 +5812,10 @@
         <v>142</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E128" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5815,7 +5829,7 @@
         <v>143</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E129" s="40">
         <v>14</v>
@@ -5832,7 +5846,7 @@
         <v>144</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E130" s="40">
         <v>12</v>
@@ -5849,7 +5863,7 @@
         <v>145</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E131" s="40">
         <v>14</v>
@@ -5866,7 +5880,7 @@
         <v>146</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E132" s="40">
         <v>14</v>
@@ -5883,7 +5897,7 @@
         <v>147</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E133" s="40">
         <v>14</v>
@@ -5900,10 +5914,10 @@
         <v>148</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E134" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5917,10 +5931,10 @@
         <v>149</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E135" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5934,7 +5948,7 @@
         <v>150</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E136" s="40">
         <v>12</v>
@@ -5951,10 +5965,10 @@
         <v>151</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E137" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5968,7 +5982,7 @@
         <v>152</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E138" s="40">
         <v>3</v>
@@ -5985,7 +5999,7 @@
         <v>153</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E139" s="40">
         <v>1</v>
@@ -6002,10 +6016,10 @@
         <v>154</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E140" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6019,7 +6033,7 @@
         <v>155</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E141" s="40">
         <v>3</v>
@@ -6036,7 +6050,7 @@
         <v>156</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E142" s="40">
         <v>3</v>
@@ -6053,10 +6067,10 @@
         <v>157</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E143" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -6070,7 +6084,7 @@
         <v>158</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E144" s="40">
         <v>3</v>
@@ -6087,7 +6101,7 @@
         <v>159</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E145" s="40">
         <v>3</v>
@@ -6104,10 +6118,10 @@
         <v>160</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E146" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6121,7 +6135,7 @@
         <v>161</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E147" s="40">
         <v>3</v>
@@ -6138,10 +6152,10 @@
         <v>162</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E148" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6155,7 +6169,7 @@
         <v>163</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E149" s="40">
         <v>6</v>
@@ -6172,10 +6186,10 @@
         <v>164</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E150" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -6189,10 +6203,10 @@
         <v>165</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E151" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6206,10 +6220,10 @@
         <v>166</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -6223,10 +6237,10 @@
         <v>167</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E153" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -6240,10 +6254,10 @@
         <v>168</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E154" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6257,10 +6271,10 @@
         <v>169</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E155" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6274,10 +6288,10 @@
         <v>170</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E156" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6291,10 +6305,10 @@
         <v>171</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E157" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6308,10 +6322,10 @@
         <v>172</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E158" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -6325,10 +6339,10 @@
         <v>173</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E159" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6342,10 +6356,10 @@
         <v>174</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E160" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6359,10 +6373,10 @@
         <v>175</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E161" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6376,10 +6390,10 @@
         <v>176</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E162" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6393,10 +6407,10 @@
         <v>177</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E163" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6410,10 +6424,10 @@
         <v>178</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E164" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6427,10 +6441,10 @@
         <v>179</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E165" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6444,10 +6458,10 @@
         <v>180</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E166" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6461,10 +6475,10 @@
         <v>181</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E167" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6478,10 +6492,10 @@
         <v>182</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E168" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6495,10 +6509,10 @@
         <v>183</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E169" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -6512,10 +6526,10 @@
         <v>184</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E170" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -6529,10 +6543,10 @@
         <v>185</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E171" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -6546,7 +6560,7 @@
         <v>186</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E172" s="40">
         <v>3</v>
@@ -6563,7 +6577,7 @@
         <v>187</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E173" s="40">
         <v>3</v>
@@ -6580,7 +6594,7 @@
         <v>188</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E174" s="40">
         <v>3</v>
@@ -6597,10 +6611,10 @@
         <v>189</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E175" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -6614,7 +6628,7 @@
         <v>190</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E176" s="40">
         <v>7</v>
@@ -6631,7 +6645,7 @@
         <v>191</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E177" s="40">
         <v>6</v>
@@ -6648,10 +6662,10 @@
         <v>192</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E178" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -6665,10 +6679,10 @@
         <v>193</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E179" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -6682,10 +6696,10 @@
         <v>194</v>
       </c>
       <c r="D180" s="31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E180" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -6699,10 +6713,10 @@
         <v>195</v>
       </c>
       <c r="D181" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E181" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -6716,10 +6730,10 @@
         <v>196</v>
       </c>
       <c r="D182" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E182" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -6733,10 +6747,10 @@
         <v>197</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E183" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -6750,10 +6764,10 @@
         <v>198</v>
       </c>
       <c r="D184" s="31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E184" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -6767,10 +6781,10 @@
         <v>199</v>
       </c>
       <c r="D185" s="31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E185" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -6784,10 +6798,10 @@
         <v>200</v>
       </c>
       <c r="D186" s="31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E186" s="41" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -6801,7 +6815,7 @@
         <v>201</v>
       </c>
       <c r="D187" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E187" s="40">
         <v>6</v>
@@ -6818,10 +6832,10 @@
         <v>202</v>
       </c>
       <c r="D188" s="31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E188" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -6835,10 +6849,10 @@
         <v>203</v>
       </c>
       <c r="D189" s="31" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E189" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -6852,10 +6866,10 @@
         <v>204</v>
       </c>
       <c r="D190" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E190" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -6869,10 +6883,10 @@
         <v>205</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E191" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -6886,10 +6900,10 @@
         <v>206</v>
       </c>
       <c r="D192" s="31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -6903,10 +6917,10 @@
         <v>207</v>
       </c>
       <c r="D193" s="31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E193" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -6920,10 +6934,10 @@
         <v>208</v>
       </c>
       <c r="D194" s="31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E194" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -6937,7 +6951,7 @@
         <v>209</v>
       </c>
       <c r="D195" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E195" s="40">
         <v>1</v>
@@ -6954,7 +6968,7 @@
         <v>210</v>
       </c>
       <c r="D196" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E196" s="40">
         <v>1</v>
@@ -6971,10 +6985,10 @@
         <v>211</v>
       </c>
       <c r="D197" s="31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E197" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -6988,10 +7002,10 @@
         <v>212</v>
       </c>
       <c r="D198" s="31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -7005,10 +7019,10 @@
         <v>213</v>
       </c>
       <c r="D199" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -7022,10 +7036,10 @@
         <v>214</v>
       </c>
       <c r="D200" s="31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E200" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -7039,10 +7053,10 @@
         <v>215</v>
       </c>
       <c r="D201" s="31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E201" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -7056,10 +7070,10 @@
         <v>216</v>
       </c>
       <c r="D202" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E202" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -7073,10 +7087,10 @@
         <v>217</v>
       </c>
       <c r="D203" s="31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E203" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -7090,10 +7104,10 @@
         <v>218</v>
       </c>
       <c r="D204" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E204" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -7107,10 +7121,10 @@
         <v>219</v>
       </c>
       <c r="D205" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E205" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -7124,10 +7138,10 @@
         <v>220</v>
       </c>
       <c r="D206" s="31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E206" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -7141,10 +7155,10 @@
         <v>221</v>
       </c>
       <c r="D207" s="31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E207" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -7158,10 +7172,10 @@
         <v>222</v>
       </c>
       <c r="D208" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E208" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -7175,10 +7189,10 @@
         <v>223</v>
       </c>
       <c r="D209" s="31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E209" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -7192,10 +7206,10 @@
         <v>224</v>
       </c>
       <c r="D210" s="31" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E210" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -7209,10 +7223,10 @@
         <v>225</v>
       </c>
       <c r="D211" s="31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E211" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -7226,10 +7240,10 @@
         <v>226</v>
       </c>
       <c r="D212" s="31" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E212" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -7243,10 +7257,10 @@
         <v>227</v>
       </c>
       <c r="D213" s="31" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -7260,10 +7274,10 @@
         <v>228</v>
       </c>
       <c r="D214" s="31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E214" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -7277,10 +7291,10 @@
         <v>229</v>
       </c>
       <c r="D215" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E215" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -7294,10 +7308,10 @@
         <v>230</v>
       </c>
       <c r="D216" s="31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E216" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -7311,7 +7325,7 @@
         <v>231</v>
       </c>
       <c r="D217" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E217" s="40">
         <v>1</v>
@@ -7328,10 +7342,10 @@
         <v>232</v>
       </c>
       <c r="D218" s="31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -7345,10 +7359,10 @@
         <v>233</v>
       </c>
       <c r="D219" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -7362,10 +7376,10 @@
         <v>234</v>
       </c>
       <c r="D220" s="31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -7379,10 +7393,10 @@
         <v>235</v>
       </c>
       <c r="D221" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E221" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -7396,10 +7410,10 @@
         <v>236</v>
       </c>
       <c r="D222" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E222" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -7413,10 +7427,10 @@
         <v>237</v>
       </c>
       <c r="D223" s="31" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E223" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -7430,7 +7444,7 @@
         <v>238</v>
       </c>
       <c r="D224" s="31" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E224" s="40">
         <v>4</v>
@@ -7447,7 +7461,7 @@
         <v>239</v>
       </c>
       <c r="D225" s="31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E225" s="40">
         <v>4</v>
@@ -7464,10 +7478,10 @@
         <v>240</v>
       </c>
       <c r="D226" s="31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E226" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -7481,10 +7495,10 @@
         <v>241</v>
       </c>
       <c r="D227" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E227" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -7498,10 +7512,10 @@
         <v>242</v>
       </c>
       <c r="D228" s="31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -7515,10 +7529,10 @@
         <v>243</v>
       </c>
       <c r="D229" s="31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -7532,10 +7546,10 @@
         <v>244</v>
       </c>
       <c r="D230" s="31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E230" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -7549,7 +7563,7 @@
         <v>245</v>
       </c>
       <c r="D231" s="31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E231" s="40">
         <v>4</v>
@@ -7566,7 +7580,7 @@
         <v>246</v>
       </c>
       <c r="D232" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E232" s="40">
         <v>4</v>
@@ -7583,10 +7597,10 @@
         <v>247</v>
       </c>
       <c r="D233" s="31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E233" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -7600,10 +7614,10 @@
         <v>248</v>
       </c>
       <c r="D234" s="31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E234" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -7617,10 +7631,10 @@
         <v>249</v>
       </c>
       <c r="D235" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -7634,10 +7648,10 @@
         <v>250</v>
       </c>
       <c r="D236" s="31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -7651,10 +7665,10 @@
         <v>251</v>
       </c>
       <c r="D237" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -7668,7 +7682,7 @@
         <v>252</v>
       </c>
       <c r="D238" s="31" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E238" s="40">
         <v>1</v>
@@ -7685,10 +7699,10 @@
         <v>253</v>
       </c>
       <c r="D239" s="31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E239" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -7702,10 +7716,10 @@
         <v>254</v>
       </c>
       <c r="D240" s="31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E240" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -7719,10 +7733,10 @@
         <v>255</v>
       </c>
       <c r="D241" s="31" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E241" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -7736,7 +7750,7 @@
         <v>256</v>
       </c>
       <c r="D242" s="31" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E242" s="40">
         <v>18</v>
@@ -7753,7 +7767,7 @@
         <v>257</v>
       </c>
       <c r="D243" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E243" s="40">
         <v>18</v>
@@ -7770,10 +7784,10 @@
         <v>258</v>
       </c>
       <c r="D244" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7787,10 +7801,10 @@
         <v>259</v>
       </c>
       <c r="D245" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E245" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7804,7 +7818,7 @@
         <v>260</v>
       </c>
       <c r="D246" s="31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E246" s="40">
         <v>18</v>
@@ -7821,7 +7835,7 @@
         <v>261</v>
       </c>
       <c r="D247" s="31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E247" s="40">
         <v>18</v>
@@ -7838,7 +7852,7 @@
         <v>262</v>
       </c>
       <c r="D248" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E248" s="40">
         <v>18</v>
@@ -7855,10 +7869,10 @@
         <v>263</v>
       </c>
       <c r="D249" s="31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -7872,10 +7886,10 @@
         <v>264</v>
       </c>
       <c r="D250" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -7889,10 +7903,10 @@
         <v>265</v>
       </c>
       <c r="D251" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7906,10 +7920,10 @@
         <v>266</v>
       </c>
       <c r="D252" s="31" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -7923,10 +7937,10 @@
         <v>267</v>
       </c>
       <c r="D253" s="31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -7940,10 +7954,10 @@
         <v>268</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -7957,10 +7971,10 @@
         <v>269</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -7974,10 +7988,10 @@
         <v>270</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -7991,10 +8005,10 @@
         <v>271</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -8008,10 +8022,10 @@
         <v>272</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -8025,10 +8039,10 @@
         <v>273</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -8042,10 +8056,10 @@
         <v>274</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -8059,10 +8073,10 @@
         <v>275</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -8076,10 +8090,10 @@
         <v>276</v>
       </c>
       <c r="D262" s="31" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -8093,10 +8107,10 @@
         <v>277</v>
       </c>
       <c r="D263" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -8110,10 +8124,10 @@
         <v>278</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E264" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -8127,10 +8141,10 @@
         <v>279</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E265" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -8144,10 +8158,10 @@
         <v>280</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -8161,7 +8175,7 @@
         <v>281</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E267" s="40">
         <v>1</v>
@@ -8178,7 +8192,7 @@
         <v>282</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E268" s="40">
         <v>1</v>
@@ -8195,10 +8209,10 @@
         <v>283</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -8212,10 +8226,10 @@
         <v>284</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E270" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -8229,10 +8243,10 @@
         <v>285</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E271" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -8246,10 +8260,10 @@
         <v>286</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E272" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -8263,10 +8277,10 @@
         <v>287</v>
       </c>
       <c r="D273" s="31" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E273" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -8280,10 +8294,10 @@
         <v>288</v>
       </c>
       <c r="D274" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E274" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -8297,10 +8311,10 @@
         <v>289</v>
       </c>
       <c r="D275" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E275" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -8314,7 +8328,7 @@
         <v>290</v>
       </c>
       <c r="D276" s="31" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E276" s="40">
         <v>15</v>
@@ -8331,7 +8345,7 @@
         <v>291</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E277" s="40">
         <v>15</v>
@@ -8348,10 +8362,10 @@
         <v>292</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E278" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -8365,10 +8379,10 @@
         <v>293</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E279" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -8382,7 +8396,7 @@
         <v>294</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E280" s="40">
         <v>11</v>
@@ -8399,7 +8413,7 @@
         <v>295</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E281" s="40">
         <v>11</v>
@@ -8416,7 +8430,7 @@
         <v>296</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E282" s="40">
         <v>11</v>
@@ -8433,7 +8447,7 @@
         <v>297</v>
       </c>
       <c r="D283" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E283" s="40">
         <v>11</v>
@@ -8450,7 +8464,7 @@
         <v>298</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E284" s="40">
         <v>17</v>
@@ -8467,7 +8481,7 @@
         <v>299</v>
       </c>
       <c r="D285" s="31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E285" s="40">
         <v>17</v>
@@ -8484,7 +8498,7 @@
         <v>300</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E286" s="40">
         <v>17</v>
@@ -8501,7 +8515,7 @@
         <v>301</v>
       </c>
       <c r="D287" s="31" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E287" s="40">
         <v>17</v>
@@ -8518,7 +8532,7 @@
         <v>302</v>
       </c>
       <c r="D288" s="31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E288" s="40">
         <v>11</v>
@@ -8535,10 +8549,10 @@
         <v>303</v>
       </c>
       <c r="D289" s="31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E289" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -8552,7 +8566,7 @@
         <v>304</v>
       </c>
       <c r="D290" s="31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E290" s="40">
         <v>16</v>
@@ -8569,7 +8583,7 @@
         <v>305</v>
       </c>
       <c r="D291" s="31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E291" s="40">
         <v>11</v>
@@ -8586,7 +8600,7 @@
         <v>306</v>
       </c>
       <c r="D292" s="31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E292" s="40">
         <v>11</v>
@@ -8603,7 +8617,7 @@
         <v>307</v>
       </c>
       <c r="D293" s="31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E293" s="40">
         <v>16</v>
@@ -8620,10 +8634,10 @@
         <v>308</v>
       </c>
       <c r="D294" s="31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E294" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -8637,10 +8651,10 @@
         <v>309</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E295" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -8654,10 +8668,10 @@
         <v>310</v>
       </c>
       <c r="D296" s="31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E296" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -8671,10 +8685,10 @@
         <v>311</v>
       </c>
       <c r="D297" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E297" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -8688,10 +8702,10 @@
         <v>312</v>
       </c>
       <c r="D298" s="31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E298" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -8705,10 +8719,10 @@
         <v>313</v>
       </c>
       <c r="D299" s="31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E299" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -8722,10 +8736,10 @@
         <v>314</v>
       </c>
       <c r="D300" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E300" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -8739,10 +8753,10 @@
         <v>315</v>
       </c>
       <c r="D301" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E301" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -8756,10 +8770,10 @@
         <v>316</v>
       </c>
       <c r="D302" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E302" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -8773,10 +8787,10 @@
         <v>317</v>
       </c>
       <c r="D303" s="31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E303" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -8790,10 +8804,10 @@
         <v>318</v>
       </c>
       <c r="D304" s="31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E304" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -8807,10 +8821,10 @@
         <v>319</v>
       </c>
       <c r="D305" s="31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E305" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -8824,10 +8838,10 @@
         <v>320</v>
       </c>
       <c r="D306" s="31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E306" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -8841,7 +8855,7 @@
         <v>321</v>
       </c>
       <c r="D307" s="31" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E307" s="40">
         <v>12</v>
@@ -8858,7 +8872,7 @@
         <v>322</v>
       </c>
       <c r="D308" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E308" s="40">
         <v>9</v>
@@ -8875,10 +8889,10 @@
         <v>323</v>
       </c>
       <c r="D309" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E309" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -8892,10 +8906,10 @@
         <v>324</v>
       </c>
       <c r="D310" s="31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E310" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -8909,7 +8923,7 @@
         <v>325</v>
       </c>
       <c r="D311" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E311" s="40">
         <v>12</v>
@@ -8926,7 +8940,7 @@
         <v>326</v>
       </c>
       <c r="D312" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E312" s="40">
         <v>9</v>
@@ -8943,7 +8957,7 @@
         <v>327</v>
       </c>
       <c r="D313" s="31" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E313" s="40">
         <v>9</v>
@@ -8960,10 +8974,10 @@
         <v>328</v>
       </c>
       <c r="D314" s="31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E314" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -8977,10 +8991,10 @@
         <v>329</v>
       </c>
       <c r="D315" s="31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E315" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -8994,7 +9008,7 @@
         <v>330</v>
       </c>
       <c r="D316" s="31" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E316" s="40">
         <v>8</v>
@@ -9011,7 +9025,7 @@
         <v>331</v>
       </c>
       <c r="D317" s="31" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E317" s="40">
         <v>8</v>
@@ -9028,10 +9042,10 @@
         <v>332</v>
       </c>
       <c r="D318" s="31" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E318" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -9045,10 +9059,10 @@
         <v>333</v>
       </c>
       <c r="D319" s="31" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E319" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -9062,7 +9076,7 @@
         <v>334</v>
       </c>
       <c r="D320" s="31" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E320" s="40">
         <v>15</v>
@@ -9079,7 +9093,7 @@
         <v>335</v>
       </c>
       <c r="D321" s="31" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E321" s="40">
         <v>12</v>
@@ -9096,10 +9110,10 @@
         <v>336</v>
       </c>
       <c r="D322" s="31" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E322" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -9113,7 +9127,7 @@
         <v>337</v>
       </c>
       <c r="D323" s="31" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E323" s="40">
         <v>15</v>
@@ -9130,7 +9144,7 @@
         <v>338</v>
       </c>
       <c r="D324" s="31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E324" s="40">
         <v>15</v>
@@ -9147,10 +9161,10 @@
         <v>339</v>
       </c>
       <c r="D325" s="31" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E325" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -9164,10 +9178,10 @@
         <v>340</v>
       </c>
       <c r="D326" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E326" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -9181,7 +9195,7 @@
         <v>341</v>
       </c>
       <c r="D327" s="31" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E327" s="40">
         <v>10</v>
@@ -9198,10 +9212,10 @@
         <v>342</v>
       </c>
       <c r="D328" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E328" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -9215,7 +9229,7 @@
         <v>343</v>
       </c>
       <c r="D329" s="31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E329" s="40">
         <v>6</v>
@@ -9232,10 +9246,10 @@
         <v>344</v>
       </c>
       <c r="D330" s="31" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E330" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -9249,7 +9263,7 @@
         <v>345</v>
       </c>
       <c r="D331" s="31" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E331" s="40">
         <v>13</v>
@@ -9266,7 +9280,7 @@
         <v>346</v>
       </c>
       <c r="D332" s="31" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E332" s="40">
         <v>6</v>
@@ -9283,10 +9297,10 @@
         <v>347</v>
       </c>
       <c r="D333" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E333" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -9300,7 +9314,7 @@
         <v>348</v>
       </c>
       <c r="D334" s="31" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E334" s="40">
         <v>13</v>
@@ -9317,10 +9331,10 @@
         <v>349</v>
       </c>
       <c r="D335" s="31" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E335" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -9334,7 +9348,7 @@
         <v>350</v>
       </c>
       <c r="D336" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E336" s="40">
         <v>6</v>
@@ -9351,10 +9365,10 @@
         <v>351</v>
       </c>
       <c r="D337" s="31" t="s">
-        <v>872</v>
+        <v>989</v>
       </c>
       <c r="E337" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -9368,7 +9382,7 @@
         <v>352</v>
       </c>
       <c r="D338" s="31" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E338" s="40">
         <v>7</v>
@@ -9385,10 +9399,10 @@
         <v>353</v>
       </c>
       <c r="D339" s="31" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E339" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -9402,10 +9416,10 @@
         <v>354</v>
       </c>
       <c r="D340" s="31" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E340" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -9419,10 +9433,10 @@
         <v>355</v>
       </c>
       <c r="D341" s="31" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E341" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -9436,7 +9450,7 @@
         <v>356</v>
       </c>
       <c r="D342" s="31" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E342" s="40">
         <v>6</v>
@@ -9453,10 +9467,10 @@
         <v>357</v>
       </c>
       <c r="D343" s="31" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E343" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -9470,10 +9484,10 @@
         <v>358</v>
       </c>
       <c r="D344" s="31" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E344" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -9487,7 +9501,7 @@
         <v>359</v>
       </c>
       <c r="D345" s="31" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E345" s="40">
         <v>7</v>
@@ -9504,10 +9518,10 @@
         <v>360</v>
       </c>
       <c r="D346" s="31" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E346" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -9521,10 +9535,10 @@
         <v>361</v>
       </c>
       <c r="D347" s="31" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E347" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -9538,7 +9552,7 @@
         <v>362</v>
       </c>
       <c r="D348" s="31" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E348" s="40">
         <v>1</v>
@@ -9555,10 +9569,10 @@
         <v>363</v>
       </c>
       <c r="D349" s="31" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E349" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -9572,7 +9586,7 @@
         <v>364</v>
       </c>
       <c r="D350" s="31" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E350" s="40">
         <v>1</v>
@@ -9589,10 +9603,10 @@
         <v>365</v>
       </c>
       <c r="D351" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E351" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -9606,7 +9620,7 @@
         <v>366</v>
       </c>
       <c r="D352" s="31" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E352" s="40">
         <v>6</v>
@@ -9623,7 +9637,7 @@
         <v>367</v>
       </c>
       <c r="D353" s="31" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E353" s="40">
         <v>6</v>
@@ -9640,7 +9654,7 @@
         <v>368</v>
       </c>
       <c r="D354" s="31" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E354" s="40">
         <v>13</v>
@@ -9657,7 +9671,7 @@
         <v>369</v>
       </c>
       <c r="D355" s="31" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E355" s="40">
         <v>13</v>
@@ -9674,10 +9688,10 @@
         <v>370</v>
       </c>
       <c r="D356" s="31" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E356" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -9691,7 +9705,7 @@
         <v>371</v>
       </c>
       <c r="D357" s="31" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E357" s="40">
         <v>13</v>
@@ -9708,7 +9722,7 @@
         <v>372</v>
       </c>
       <c r="D358" s="31" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E358" s="40">
         <v>13</v>
@@ -9725,10 +9739,10 @@
         <v>373</v>
       </c>
       <c r="D359" s="31" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E359" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -9742,10 +9756,10 @@
         <v>374</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E360" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -9759,7 +9773,7 @@
         <v>375</v>
       </c>
       <c r="D361" s="31" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E361" s="40">
         <v>10</v>
@@ -9776,7 +9790,7 @@
         <v>376</v>
       </c>
       <c r="D362" s="31" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E362" s="40">
         <v>7</v>
@@ -9793,7 +9807,7 @@
         <v>377</v>
       </c>
       <c r="D363" s="31" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E363" s="40">
         <v>11</v>
@@ -9810,7 +9824,7 @@
         <v>378</v>
       </c>
       <c r="D364" s="31" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E364" s="40">
         <v>13</v>
@@ -9827,7 +9841,7 @@
         <v>379</v>
       </c>
       <c r="D365" s="31" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E365" s="40">
         <v>11</v>
@@ -9844,10 +9858,10 @@
         <v>380</v>
       </c>
       <c r="D366" s="31" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E366" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -9861,7 +9875,7 @@
         <v>381</v>
       </c>
       <c r="D367" s="31" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E367" s="40">
         <v>14</v>
@@ -9878,10 +9892,10 @@
         <v>382</v>
       </c>
       <c r="D368" s="31" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -9895,10 +9909,10 @@
         <v>383</v>
       </c>
       <c r="D369" s="31" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -9912,10 +9926,10 @@
         <v>384</v>
       </c>
       <c r="D370" s="31" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E370" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -9929,10 +9943,10 @@
         <v>385</v>
       </c>
       <c r="D371" s="31" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E371" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -9946,10 +9960,10 @@
         <v>386</v>
       </c>
       <c r="D372" s="31" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E372" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -9963,7 +9977,7 @@
         <v>387</v>
       </c>
       <c r="D373" s="31" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E373" s="40">
         <v>17</v>
@@ -9980,7 +9994,7 @@
         <v>388</v>
       </c>
       <c r="D374" s="31" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E374" s="40">
         <v>16</v>
@@ -9997,7 +10011,7 @@
         <v>389</v>
       </c>
       <c r="D375" s="31" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E375" s="40">
         <v>17</v>
@@ -10014,7 +10028,7 @@
         <v>390</v>
       </c>
       <c r="D376" s="31" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E376" s="40">
         <v>17</v>
@@ -10031,7 +10045,7 @@
         <v>391</v>
       </c>
       <c r="D377" s="31" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E377" s="40">
         <v>16</v>
@@ -10047,8 +10061,8 @@
       <c r="C378" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="D378" s="31">
-        <v>263</v>
+      <c r="D378" s="31" t="s">
+        <v>987</v>
       </c>
       <c r="E378" s="40">
         <v>9</v>
@@ -10065,7 +10079,7 @@
         <v>393</v>
       </c>
       <c r="D379" s="31" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E379" s="40">
         <v>9</v>
@@ -10082,7 +10096,7 @@
         <v>394</v>
       </c>
       <c r="D380" s="31" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E380" s="40">
         <v>9</v>
@@ -10099,7 +10113,7 @@
         <v>395</v>
       </c>
       <c r="D381" s="31" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E381" s="40">
         <v>9</v>
@@ -10116,7 +10130,7 @@
         <v>396</v>
       </c>
       <c r="D382" s="31" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E382" s="40">
         <v>9</v>
@@ -10133,7 +10147,7 @@
         <v>397</v>
       </c>
       <c r="D383" s="31" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E383" s="40">
         <v>17</v>
@@ -10150,7 +10164,7 @@
         <v>398</v>
       </c>
       <c r="D384" s="31" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E384" s="40">
         <v>18</v>
@@ -10167,7 +10181,7 @@
         <v>399</v>
       </c>
       <c r="D385" s="31" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E385" s="40">
         <v>5</v>
@@ -10184,7 +10198,7 @@
         <v>400</v>
       </c>
       <c r="D386" s="31" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E386" s="40">
         <v>1</v>
@@ -10201,10 +10215,10 @@
         <v>401</v>
       </c>
       <c r="D387" s="31" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E387" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -10218,10 +10232,10 @@
         <v>402</v>
       </c>
       <c r="D388" s="31" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E388" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -10235,10 +10249,10 @@
         <v>403</v>
       </c>
       <c r="D389" s="31" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E389" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -10252,7 +10266,7 @@
         <v>404</v>
       </c>
       <c r="D390" s="31" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E390" s="40">
         <v>9</v>
@@ -10269,10 +10283,10 @@
         <v>405</v>
       </c>
       <c r="D391" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -10286,7 +10300,7 @@
         <v>406</v>
       </c>
       <c r="D392" s="31" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E392" s="40">
         <v>5</v>
@@ -10303,7 +10317,7 @@
         <v>407</v>
       </c>
       <c r="D393" s="31" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E393" s="40">
         <v>14</v>
@@ -10320,7 +10334,7 @@
         <v>408</v>
       </c>
       <c r="D394" s="31" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E394" s="40">
         <v>14</v>
@@ -10337,7 +10351,7 @@
         <v>409</v>
       </c>
       <c r="D395" s="31" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E395" s="40">
         <v>5</v>
@@ -10354,7 +10368,7 @@
         <v>410</v>
       </c>
       <c r="D396" s="31" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E396" s="40">
         <v>14</v>
@@ -10371,7 +10385,7 @@
         <v>411</v>
       </c>
       <c r="D397" s="31" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E397" s="40">
         <v>14</v>
@@ -10388,10 +10402,10 @@
         <v>412</v>
       </c>
       <c r="D398" s="31" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E398" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -10405,10 +10419,10 @@
         <v>413</v>
       </c>
       <c r="D399" s="31" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E399" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -10422,7 +10436,7 @@
         <v>414</v>
       </c>
       <c r="D400" s="31" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E400" s="40">
         <v>4</v>
@@ -10439,7 +10453,7 @@
         <v>415</v>
       </c>
       <c r="D401" s="31" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E401" s="40">
         <v>4</v>
@@ -10456,7 +10470,7 @@
         <v>416</v>
       </c>
       <c r="D402" s="31" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E402" s="40">
         <v>4</v>
@@ -10473,7 +10487,7 @@
         <v>417</v>
       </c>
       <c r="D403" s="31" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E403" s="40">
         <v>4</v>
@@ -10490,7 +10504,7 @@
         <v>418</v>
       </c>
       <c r="D404" s="31" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E404" s="40">
         <v>4</v>
@@ -10507,7 +10521,7 @@
         <v>419</v>
       </c>
       <c r="D405" s="31" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E405" s="40">
         <v>16</v>
@@ -10524,7 +10538,7 @@
         <v>420</v>
       </c>
       <c r="D406" s="31" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E406" s="40">
         <v>16</v>
@@ -10541,7 +10555,7 @@
         <v>421</v>
       </c>
       <c r="D407" s="31" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E407" s="40">
         <v>16</v>
@@ -10558,7 +10572,7 @@
         <v>422</v>
       </c>
       <c r="D408" s="31" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E408" s="40">
         <v>16</v>
@@ -10575,7 +10589,7 @@
         <v>423</v>
       </c>
       <c r="D409" s="31" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E409" s="40">
         <v>16</v>
@@ -10592,7 +10606,7 @@
         <v>424</v>
       </c>
       <c r="D410" s="31" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E410" s="40">
         <v>16</v>
@@ -10609,10 +10623,10 @@
         <v>425</v>
       </c>
       <c r="D411" s="31" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E411" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -10626,10 +10640,10 @@
         <v>426</v>
       </c>
       <c r="D412" s="31" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E412" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -10643,10 +10657,10 @@
         <v>427</v>
       </c>
       <c r="D413" s="31" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E413" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -10660,10 +10674,10 @@
         <v>428</v>
       </c>
       <c r="D414" s="31" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E414" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -10677,10 +10691,10 @@
         <v>429</v>
       </c>
       <c r="D415" s="31" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E415" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -10694,10 +10708,10 @@
         <v>430</v>
       </c>
       <c r="D416" s="31" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E416" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -10711,7 +10725,7 @@
         <v>431</v>
       </c>
       <c r="D417" s="31" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E417" s="40">
         <v>2</v>
@@ -10728,7 +10742,7 @@
         <v>432</v>
       </c>
       <c r="D418" s="31" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E418" s="40">
         <v>2</v>
@@ -10745,7 +10759,7 @@
         <v>433</v>
       </c>
       <c r="D419" s="31" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E419" s="40">
         <v>2</v>
@@ -10762,10 +10776,10 @@
         <v>434</v>
       </c>
       <c r="D420" s="31" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E420" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -10779,10 +10793,10 @@
         <v>435</v>
       </c>
       <c r="D421" s="31" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E421" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -10796,10 +10810,10 @@
         <v>436</v>
       </c>
       <c r="D422" s="31" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E422" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -10813,7 +10827,7 @@
         <v>437</v>
       </c>
       <c r="D423" s="31" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E423" s="40">
         <v>8</v>
@@ -10830,10 +10844,10 @@
         <v>438</v>
       </c>
       <c r="D424" s="31" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E424" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -10847,10 +10861,10 @@
         <v>439</v>
       </c>
       <c r="D425" s="31" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E425" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -10864,10 +10878,10 @@
         <v>440</v>
       </c>
       <c r="D426" s="31" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E426" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -10881,10 +10895,10 @@
         <v>441</v>
       </c>
       <c r="D427" s="31" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E427" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -10898,10 +10912,10 @@
         <v>442</v>
       </c>
       <c r="D428" s="31" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E428" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -10915,10 +10929,10 @@
         <v>443</v>
       </c>
       <c r="D429" s="31" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E429" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -10932,7 +10946,7 @@
         <v>444</v>
       </c>
       <c r="D430" s="31" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E430" s="40">
         <v>8</v>
@@ -10949,10 +10963,10 @@
         <v>445</v>
       </c>
       <c r="D431" s="31" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E431" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -10966,7 +10980,7 @@
         <v>446</v>
       </c>
       <c r="D432" s="31" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E432" s="40">
         <v>8</v>
@@ -10983,7 +10997,7 @@
         <v>447</v>
       </c>
       <c r="D433" s="31" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E433" s="40">
         <v>7</v>
@@ -11000,7 +11014,7 @@
         <v>448</v>
       </c>
       <c r="D434" s="31" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E434" s="40">
         <v>7</v>
@@ -11017,7 +11031,7 @@
         <v>449</v>
       </c>
       <c r="D435" s="31" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E435" s="40">
         <v>7</v>
@@ -11034,10 +11048,10 @@
         <v>450</v>
       </c>
       <c r="D436" s="31" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E436" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -11051,10 +11065,10 @@
         <v>451</v>
       </c>
       <c r="D437" s="31" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E437" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -11068,10 +11082,10 @@
         <v>452</v>
       </c>
       <c r="D438" s="31" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E438" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -11085,7 +11099,7 @@
         <v>453</v>
       </c>
       <c r="D439" s="31" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E439" s="40">
         <v>14</v>
@@ -11102,10 +11116,10 @@
         <v>454</v>
       </c>
       <c r="D440" s="31" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E440" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -11119,10 +11133,10 @@
         <v>455</v>
       </c>
       <c r="D441" s="31" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E441" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -11136,10 +11150,10 @@
         <v>456</v>
       </c>
       <c r="D442" s="31" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E442" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -11157,7 +11171,7 @@
         <v>XL230040</v>
       </c>
       <c r="E443" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -11168,14 +11182,14 @@
         <v>10</v>
       </c>
       <c r="C444" s="38" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D444" s="25" t="str">
         <f>VLOOKUP(C444,Sheet2!A:B,2,0)</f>
         <v>XL230041</v>
       </c>
       <c r="E444" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -11193,7 +11207,7 @@
         <v>XL230043</v>
       </c>
       <c r="E445" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -11211,7 +11225,7 @@
         <v>XL230044</v>
       </c>
       <c r="E446" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -11229,7 +11243,7 @@
         <v>XL231122</v>
       </c>
       <c r="E447" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -11247,7 +11261,7 @@
         <v>XL234200</v>
       </c>
       <c r="E448" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -11265,7 +11279,7 @@
         <v>XL234430</v>
       </c>
       <c r="E449" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -11283,7 +11297,7 @@
         <v>XL235180</v>
       </c>
       <c r="E450" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -11319,7 +11333,7 @@
         <v>XL235433</v>
       </c>
       <c r="E452" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -11355,7 +11369,7 @@
         <v>XL243045</v>
       </c>
       <c r="E454" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -11369,7 +11383,7 @@
         <v>469</v>
       </c>
       <c r="D455" s="33" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E455" s="40">
         <v>19</v>
@@ -11386,7 +11400,7 @@
         <v>470</v>
       </c>
       <c r="D456" s="33" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E456" s="40">
         <v>19</v>
@@ -11403,7 +11417,7 @@
         <v>471</v>
       </c>
       <c r="D457" s="33" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E457" s="40">
         <v>19</v>
@@ -11420,10 +11434,10 @@
         <v>472</v>
       </c>
       <c r="D458" s="33" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E458" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -11437,10 +11451,10 @@
         <v>473</v>
       </c>
       <c r="D459" s="33" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E459" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -11454,7 +11468,7 @@
         <v>474</v>
       </c>
       <c r="D460" s="33" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E460" s="40">
         <v>19</v>
@@ -11462,6 +11476,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
